--- a/dataset/2nd_data/preprocessing/growth_detail.xlsx
+++ b/dataset/2nd_data/preprocessing/growth_detail.xlsx
@@ -437,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>주차</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -497,65 +497,63 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>leaf_area</t>
+          <t>엽면적지수</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>suitable_growth_length</t>
+          <t>주간생육길이_생육상태</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>suitable_thickness</t>
+          <t>줄기굵기_생육상태</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_length</t>
+          <t>잎길이_생육상태</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_width</t>
+          <t>입폭_생육상태</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_number_of_leaf</t>
+          <t>입수_생육상태</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_area</t>
+          <t>엽면적지수_생육상태</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_room</t>
+          <t>개화화방위치_생육상태</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_distance</t>
+          <t>꽃과줄기거리_생육상태</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>growth_type_score</t>
+          <t>생육상태점수</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>growth_type</t>
+          <t>생장구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20180208</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -625,10 +623,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20180208</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -698,10 +694,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20180208</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -771,10 +765,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20180208</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -844,10 +836,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20180208</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -917,10 +907,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20180208</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -990,10 +978,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20180214</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1063,10 +1049,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20180214</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -1136,10 +1120,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20180214</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -1202,17 +1184,15 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20180214</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -1282,10 +1262,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20180214</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -1355,10 +1333,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20180214</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -1428,10 +1404,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20180222</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1494,17 +1468,15 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20180222</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -1567,17 +1539,15 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20180222</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -1647,10 +1617,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20180222</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -1713,17 +1681,15 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20180222</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
@@ -1786,17 +1752,15 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20180222</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1859,17 +1823,15 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20180301</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1939,10 +1901,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20180301</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -2012,10 +1972,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20180301</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -2078,17 +2036,15 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20180301</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -2158,10 +2114,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20180301</v>
       </c>
       <c r="B24" t="n">
         <v>5</v>
@@ -2224,17 +2178,15 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20180301</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -2304,10 +2256,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20180308</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -2377,10 +2327,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20180308</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -2443,17 +2391,15 @@
         <v>-1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20180308</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -2516,17 +2462,15 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20180308</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -2596,10 +2540,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20180308</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -2669,10 +2611,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20180308</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -2735,17 +2675,15 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20180315</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2808,17 +2746,15 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20180315</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -2881,17 +2817,15 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20180315</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -2961,10 +2895,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20180315</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -3027,17 +2959,15 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20180315</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
@@ -3100,17 +3030,15 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20180315</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -3180,10 +3108,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20180322</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -3253,10 +3179,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20180322</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -3319,17 +3243,15 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20180322</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -3392,17 +3314,15 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20180322</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -3465,17 +3385,15 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20180322</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
@@ -3538,17 +3456,15 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20180322</v>
       </c>
       <c r="B43" t="n">
         <v>6</v>
@@ -3611,17 +3527,15 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20180329</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -3684,17 +3598,15 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20180329</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
@@ -3757,17 +3669,15 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20180329</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -3830,17 +3740,15 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20180329</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
@@ -3903,17 +3811,15 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20180329</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
@@ -3976,17 +3882,15 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20180329</v>
       </c>
       <c r="B49" t="n">
         <v>6</v>
@@ -4049,17 +3953,15 @@
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20180405</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -4122,17 +4024,15 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20180405</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -4202,10 +4102,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20180405</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -4268,17 +4166,15 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20180405</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -4341,17 +4237,15 @@
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20180405</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -4414,17 +4308,15 @@
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20180405</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -4487,17 +4379,15 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20180412</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -4560,17 +4450,15 @@
         <v>-1</v>
       </c>
       <c r="V56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20180412</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
@@ -4633,17 +4521,15 @@
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20180412</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -4706,17 +4592,15 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20180412</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -4779,17 +4663,15 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20180412</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
@@ -4852,17 +4734,15 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20180412</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -4925,17 +4805,15 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -5005,10 +4883,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -5071,17 +4947,15 @@
         <v>-1</v>
       </c>
       <c r="V63" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W63" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -5144,17 +5018,15 @@
         <v>-1</v>
       </c>
       <c r="V64" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W64" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="n">
         <v>4</v>
@@ -5217,17 +5089,15 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
@@ -5290,17 +5160,15 @@
         <v>-1</v>
       </c>
       <c r="V66" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -5363,17 +5231,15 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20180426</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -5443,10 +5309,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20180426</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
@@ -5509,17 +5373,15 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20180426</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -5582,17 +5444,15 @@
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20180426</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
@@ -5655,17 +5515,15 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20180426</v>
       </c>
       <c r="B72" t="n">
         <v>5</v>
@@ -5735,10 +5593,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20180426</v>
       </c>
       <c r="B73" t="n">
         <v>6</v>
@@ -5808,10 +5664,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20180503</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -5881,10 +5735,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20180503</v>
       </c>
       <c r="B75" t="n">
         <v>2</v>
@@ -5954,10 +5806,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20180503</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
@@ -6027,10 +5877,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20180503</v>
       </c>
       <c r="B77" t="n">
         <v>4</v>
@@ -6100,10 +5948,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20180503</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
@@ -6173,10 +6019,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20180503</v>
       </c>
       <c r="B79" t="n">
         <v>6</v>
@@ -6246,10 +6090,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20180510</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -6319,10 +6161,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20180510</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
@@ -6392,10 +6232,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20180510</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -6465,10 +6303,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20180510</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -6538,10 +6374,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20180510</v>
       </c>
       <c r="B84" t="n">
         <v>5</v>
@@ -6611,10 +6445,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20180510</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -6684,10 +6516,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20180517</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -6757,10 +6587,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20180517</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -6830,10 +6658,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20180517</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
@@ -6903,10 +6729,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20180517</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -6976,10 +6800,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20180517</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -7049,10 +6871,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20180517</v>
       </c>
       <c r="B91" t="n">
         <v>6</v>
@@ -7122,10 +6942,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20180524</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -7195,10 +7013,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20180524</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -7268,10 +7084,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20180524</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -7341,10 +7155,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20180524</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -7414,10 +7226,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20180524</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
@@ -7487,10 +7297,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20180524</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -7560,10 +7368,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20180531</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -7633,10 +7439,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20180531</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -7706,10 +7510,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20180531</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -7779,10 +7581,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20180531</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -7852,10 +7652,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20180531</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
@@ -7925,10 +7723,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20180531</v>
       </c>
       <c r="B103" t="n">
         <v>6</v>
@@ -7998,10 +7794,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20180607</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -8071,10 +7865,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20180607</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -8144,10 +7936,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20180607</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
@@ -8217,10 +8007,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20180607</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -8290,10 +8078,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20180607</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
@@ -8363,10 +8149,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20180607</v>
       </c>
       <c r="B109" t="n">
         <v>6</v>
@@ -8436,10 +8220,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20180614</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -8509,10 +8291,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20180614</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
@@ -8582,10 +8362,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20180614</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
@@ -8655,10 +8433,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20180614</v>
       </c>
       <c r="B113" t="n">
         <v>4</v>
@@ -8728,10 +8504,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20180614</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
@@ -8801,10 +8575,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20180614</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -8874,10 +8646,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20180621</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -8947,10 +8717,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20180621</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -9020,10 +8788,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20180621</v>
       </c>
       <c r="B118" t="n">
         <v>3</v>
@@ -9093,10 +8859,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20180621</v>
       </c>
       <c r="B119" t="n">
         <v>4</v>
@@ -9166,10 +8930,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20180621</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
@@ -9239,10 +9001,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20180621</v>
       </c>
       <c r="B121" t="n">
         <v>6</v>
